--- a/data/pca/factorExposure/factorExposure_2018-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.008282000578512635</v>
+        <v>-0.01215496685326654</v>
       </c>
       <c r="C2">
-        <v>0.02861144658781668</v>
+        <v>0.02678100081860599</v>
       </c>
       <c r="D2">
-        <v>0.0226177903841358</v>
+        <v>-0.0263325258735918</v>
       </c>
       <c r="E2">
-        <v>-0.003522720037751302</v>
+        <v>-0.01835913902061161</v>
       </c>
       <c r="F2">
-        <v>0.08725117261933071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.007707734892922141</v>
+      </c>
+      <c r="G2">
+        <v>0.01822936096678559</v>
+      </c>
+      <c r="H2">
+        <v>0.04619009703897305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0783015999571121</v>
+        <v>-0.05621508846127109</v>
       </c>
       <c r="C3">
-        <v>0.05266096316739988</v>
+        <v>0.07810170673626993</v>
       </c>
       <c r="D3">
-        <v>0.006514618910476429</v>
+        <v>-0.0120499597352437</v>
       </c>
       <c r="E3">
-        <v>-0.01892439744568054</v>
+        <v>-0.00988893965609784</v>
       </c>
       <c r="F3">
-        <v>0.3255806699628276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0806533738499564</v>
+      </c>
+      <c r="G3">
+        <v>0.1151555515334284</v>
+      </c>
+      <c r="H3">
+        <v>0.1125579260990027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04417782840748256</v>
+        <v>-0.03752809715608747</v>
       </c>
       <c r="C4">
-        <v>0.02032758966183226</v>
+        <v>0.06137521034563122</v>
       </c>
       <c r="D4">
-        <v>0.02976668341390709</v>
+        <v>-0.02212046311653787</v>
       </c>
       <c r="E4">
-        <v>0.03870718252806427</v>
+        <v>0.0178046101959733</v>
       </c>
       <c r="F4">
-        <v>0.06184161305280567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02133098021221381</v>
+      </c>
+      <c r="G4">
+        <v>0.04558051071058725</v>
+      </c>
+      <c r="H4">
+        <v>0.05450770877500794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03201297845485896</v>
+        <v>-0.02173183467252406</v>
       </c>
       <c r="C6">
-        <v>0.01736614066739532</v>
+        <v>0.06075231136428483</v>
       </c>
       <c r="D6">
-        <v>0.03824555112509311</v>
+        <v>-0.01734599685513755</v>
       </c>
       <c r="E6">
-        <v>0.02514534731275011</v>
+        <v>0.005884689240895759</v>
       </c>
       <c r="F6">
-        <v>0.0171393166466868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0231077389350963</v>
+      </c>
+      <c r="G6">
+        <v>0.02069862259084119</v>
+      </c>
+      <c r="H6">
+        <v>0.05267648573631694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0397469807633633</v>
+        <v>-0.008756406698295211</v>
       </c>
       <c r="C7">
-        <v>-0.02653084178475611</v>
+        <v>0.03347758462269736</v>
       </c>
       <c r="D7">
-        <v>0.02663850484864918</v>
+        <v>-0.01323247613188524</v>
       </c>
       <c r="E7">
-        <v>0.01596421816091641</v>
+        <v>0.0443355413453243</v>
       </c>
       <c r="F7">
-        <v>0.03522264224671141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.007315847602768884</v>
+      </c>
+      <c r="G7">
+        <v>0.01301008792488456</v>
+      </c>
+      <c r="H7">
+        <v>0.03676628264246949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01378487300020695</v>
+        <v>0.002658038593353771</v>
       </c>
       <c r="C8">
-        <v>0.0005134076042558713</v>
+        <v>0.01064268531649796</v>
       </c>
       <c r="D8">
-        <v>0.03986207425011403</v>
+        <v>-0.002579353347620572</v>
       </c>
       <c r="E8">
-        <v>0.03015005287502871</v>
+        <v>0.009733253815875592</v>
       </c>
       <c r="F8">
-        <v>0.05916017664438953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.008399115682963986</v>
+      </c>
+      <c r="G8">
+        <v>0.03801495069808997</v>
+      </c>
+      <c r="H8">
+        <v>0.0280809539301016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03122132251013947</v>
+        <v>-0.02188944087846186</v>
       </c>
       <c r="C9">
-        <v>0.01240494546983284</v>
+        <v>0.04780676732980127</v>
       </c>
       <c r="D9">
-        <v>0.03098251390403525</v>
+        <v>-0.01563368273678765</v>
       </c>
       <c r="E9">
-        <v>0.01627526068438583</v>
+        <v>0.006864332807199312</v>
       </c>
       <c r="F9">
-        <v>0.07905513634977075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.005914611500174409</v>
+      </c>
+      <c r="G9">
+        <v>0.03848783162594858</v>
+      </c>
+      <c r="H9">
+        <v>0.05309649148390574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03783642332011675</v>
+        <v>-0.1324403725024789</v>
       </c>
       <c r="C10">
-        <v>0.005864298856802456</v>
+        <v>-0.138668085719087</v>
       </c>
       <c r="D10">
-        <v>-0.1453900028340387</v>
+        <v>0.03688172934068688</v>
       </c>
       <c r="E10">
-        <v>-0.04229396371956855</v>
+        <v>-0.002958580386560485</v>
       </c>
       <c r="F10">
-        <v>0.05652469919017618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05049143306536388</v>
+      </c>
+      <c r="G10">
+        <v>0.01591198281159781</v>
+      </c>
+      <c r="H10">
+        <v>-0.009421013371497661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02744414346637297</v>
+        <v>-0.01580758728954038</v>
       </c>
       <c r="C11">
-        <v>0.02490734329841875</v>
+        <v>0.05013615828236295</v>
       </c>
       <c r="D11">
-        <v>0.03494025669249805</v>
+        <v>-0.003009736221817478</v>
       </c>
       <c r="E11">
-        <v>0.02304657354034645</v>
+        <v>-0.0006434426671243845</v>
       </c>
       <c r="F11">
-        <v>0.02570181712129192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006132080700198031</v>
+      </c>
+      <c r="G11">
+        <v>0.01590586019837877</v>
+      </c>
+      <c r="H11">
+        <v>0.04914850235347724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04091685797285972</v>
+        <v>-0.01940888336088387</v>
       </c>
       <c r="C12">
-        <v>0.02720753902244688</v>
+        <v>0.04822444871729209</v>
       </c>
       <c r="D12">
-        <v>0.02723656517355089</v>
+        <v>-0.00659641676680161</v>
       </c>
       <c r="E12">
-        <v>0.03232101973224829</v>
+        <v>0.01249885014496929</v>
       </c>
       <c r="F12">
-        <v>-0.001951513578289885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01184902730867098</v>
+      </c>
+      <c r="G12">
+        <v>0.006556773604050195</v>
+      </c>
+      <c r="H12">
+        <v>0.01922972460335132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.004718039018504289</v>
+        <v>-0.01616976275020303</v>
       </c>
       <c r="C13">
-        <v>0.01890314083546439</v>
+        <v>0.02369822946267365</v>
       </c>
       <c r="D13">
-        <v>0.008313058570756546</v>
+        <v>-0.02197980092514756</v>
       </c>
       <c r="E13">
-        <v>0.01050849773720429</v>
+        <v>-0.01441173115412119</v>
       </c>
       <c r="F13">
-        <v>0.07410066926192874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.005325206531639743</v>
+      </c>
+      <c r="G13">
+        <v>0.04807854043778788</v>
+      </c>
+      <c r="H13">
+        <v>0.0696540892352944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02400858143102378</v>
+        <v>-0.008691055358041195</v>
       </c>
       <c r="C14">
-        <v>-0.0005139479038915351</v>
+        <v>0.01995841310800909</v>
       </c>
       <c r="D14">
-        <v>0.01604410871170196</v>
+        <v>-0.007520480981721492</v>
       </c>
       <c r="E14">
-        <v>0.01800401256403374</v>
+        <v>0.0154744137502363</v>
       </c>
       <c r="F14">
-        <v>0.04614118892285547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.00798555644748692</v>
+      </c>
+      <c r="G14">
+        <v>0.03024995526473947</v>
+      </c>
+      <c r="H14">
+        <v>0.01767865710676554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02931356928831521</v>
+        <v>-0.01766792692824178</v>
       </c>
       <c r="C16">
-        <v>0.02498573748556874</v>
+        <v>0.04386583177006641</v>
       </c>
       <c r="D16">
-        <v>0.03798192428202402</v>
+        <v>-0.00189809655371399</v>
       </c>
       <c r="E16">
-        <v>0.02440423938531348</v>
+        <v>0.003328499064466114</v>
       </c>
       <c r="F16">
-        <v>0.02891905870121262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.006892410462569808</v>
+      </c>
+      <c r="G16">
+        <v>0.01723481660150552</v>
+      </c>
+      <c r="H16">
+        <v>0.03749603221290726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0308970852804485</v>
+        <v>-0.01742278504015421</v>
       </c>
       <c r="C19">
-        <v>0.01922448390780546</v>
+        <v>0.04276973502478983</v>
       </c>
       <c r="D19">
-        <v>0.0414683640298058</v>
+        <v>-0.01401703514538432</v>
       </c>
       <c r="E19">
-        <v>0.04062922365539388</v>
+        <v>0.009666721901233154</v>
       </c>
       <c r="F19">
-        <v>0.07397921830979844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.004916614602419957</v>
+      </c>
+      <c r="G19">
+        <v>0.05325092045983131</v>
+      </c>
+      <c r="H19">
+        <v>0.05221392465207755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002720925200582907</v>
+        <v>-0.003955689028227165</v>
       </c>
       <c r="C20">
-        <v>-0.009244333461310848</v>
+        <v>0.02005602621833828</v>
       </c>
       <c r="D20">
-        <v>0.002658009207940411</v>
+        <v>-0.01178199506585341</v>
       </c>
       <c r="E20">
-        <v>0.01472075483194816</v>
+        <v>0.004519601682229138</v>
       </c>
       <c r="F20">
-        <v>0.05086195434567741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01335575098394992</v>
+      </c>
+      <c r="G20">
+        <v>0.04165098687293711</v>
+      </c>
+      <c r="H20">
+        <v>0.02970032925366489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02134426257462231</v>
+        <v>-0.01061641124220809</v>
       </c>
       <c r="C21">
-        <v>-0.01443179748430382</v>
+        <v>0.01827710118464102</v>
       </c>
       <c r="D21">
-        <v>0.03024424057711315</v>
+        <v>-0.01371536858256362</v>
       </c>
       <c r="E21">
-        <v>0.005399051631575346</v>
+        <v>0.01814114792046862</v>
       </c>
       <c r="F21">
-        <v>0.0288739499654493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01874020053375238</v>
+      </c>
+      <c r="G21">
+        <v>0.02998483733471659</v>
+      </c>
+      <c r="H21">
+        <v>0.0507218316287445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02583703446618</v>
+        <v>-0.01154939153153225</v>
       </c>
       <c r="C24">
-        <v>0.02193805283808721</v>
+        <v>0.04272489424013493</v>
       </c>
       <c r="D24">
-        <v>0.01895011306739059</v>
+        <v>-0.007329258463422344</v>
       </c>
       <c r="E24">
-        <v>0.02320132382978543</v>
+        <v>0.002484218937235524</v>
       </c>
       <c r="F24">
-        <v>0.03115461645340202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.008955281271130835</v>
+      </c>
+      <c r="G24">
+        <v>0.009487784979574195</v>
+      </c>
+      <c r="H24">
+        <v>0.04480558514328546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02901711368851053</v>
+        <v>-0.025535119036428</v>
       </c>
       <c r="C25">
-        <v>0.02046398392472618</v>
+        <v>0.04827895691889266</v>
       </c>
       <c r="D25">
-        <v>0.02954725605020276</v>
+        <v>-0.01081452673311083</v>
       </c>
       <c r="E25">
-        <v>0.01927811724283052</v>
+        <v>0.007039128982833011</v>
       </c>
       <c r="F25">
-        <v>0.03383459949669524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01322076911626024</v>
+      </c>
+      <c r="G25">
+        <v>0.01787968089206069</v>
+      </c>
+      <c r="H25">
+        <v>0.04282487899898151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01374358130820472</v>
+        <v>-0.008147491583839518</v>
       </c>
       <c r="C26">
-        <v>0.008779261754445494</v>
+        <v>0.00505161779137847</v>
       </c>
       <c r="D26">
-        <v>0.01751436176773096</v>
+        <v>-0.02237821822226579</v>
       </c>
       <c r="E26">
-        <v>-0.00227973958846822</v>
+        <v>0.002908970745638969</v>
       </c>
       <c r="F26">
-        <v>0.05627190119362407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01040610690447673</v>
+      </c>
+      <c r="G26">
+        <v>0.01764359094213263</v>
+      </c>
+      <c r="H26">
+        <v>0.02094518997365303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02936900589970829</v>
+        <v>-0.01041669562700594</v>
       </c>
       <c r="C27">
-        <v>0.01623101401203205</v>
+        <v>0.01060187524330343</v>
       </c>
       <c r="D27">
-        <v>-0.001039988919681066</v>
+        <v>0.001284142485192095</v>
       </c>
       <c r="E27">
-        <v>0.03268952589171326</v>
+        <v>0.006784301430777832</v>
       </c>
       <c r="F27">
-        <v>0.0113562258144962</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.00113487219640682</v>
+      </c>
+      <c r="G27">
+        <v>0.01017635130949443</v>
+      </c>
+      <c r="H27">
+        <v>-0.007256955788900148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0734857718494963</v>
+        <v>-0.1849967366427769</v>
       </c>
       <c r="C28">
-        <v>0.0158568949917079</v>
+        <v>-0.1848900244573648</v>
       </c>
       <c r="D28">
-        <v>-0.2136540607688779</v>
+        <v>0.03618961352940162</v>
       </c>
       <c r="E28">
-        <v>-0.08199797360878666</v>
+        <v>0.01052759214273944</v>
       </c>
       <c r="F28">
-        <v>0.05314084913032525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04850978711458449</v>
+      </c>
+      <c r="G28">
+        <v>0.005073426706073827</v>
+      </c>
+      <c r="H28">
+        <v>-0.01324584457922298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0253094276094408</v>
+        <v>-0.01370984478790388</v>
       </c>
       <c r="C29">
-        <v>0.0008135660940207688</v>
+        <v>0.0178959415507304</v>
       </c>
       <c r="D29">
-        <v>0.01917795559432356</v>
+        <v>-0.006201198172393775</v>
       </c>
       <c r="E29">
-        <v>0.02027354450945661</v>
+        <v>0.01484169972110883</v>
       </c>
       <c r="F29">
-        <v>0.04248550347877771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.009716254086006992</v>
+      </c>
+      <c r="G29">
+        <v>0.02994517697241285</v>
+      </c>
+      <c r="H29">
+        <v>0.01081549581913422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03540225249673423</v>
+        <v>-0.02723674930538195</v>
       </c>
       <c r="C30">
-        <v>0.07259758500238096</v>
+        <v>0.08921494863190094</v>
       </c>
       <c r="D30">
-        <v>0.05612465365124847</v>
+        <v>-0.02956121809007887</v>
       </c>
       <c r="E30">
-        <v>0.0315831590399034</v>
+        <v>-0.03116707773084291</v>
       </c>
       <c r="F30">
-        <v>0.08598566603203006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01197465356569677</v>
+      </c>
+      <c r="G30">
+        <v>0.0535926846237538</v>
+      </c>
+      <c r="H30">
+        <v>0.07584431659796759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04808184015589549</v>
+        <v>-0.04164155745026363</v>
       </c>
       <c r="C31">
-        <v>0.03817680532106358</v>
+        <v>0.03076541119595096</v>
       </c>
       <c r="D31">
-        <v>0.01553828668537592</v>
+        <v>-0.00114112479548394</v>
       </c>
       <c r="E31">
-        <v>0.02468208739437484</v>
+        <v>0.0005233438150745713</v>
       </c>
       <c r="F31">
-        <v>0.03265859798033207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.008766213015919852</v>
+      </c>
+      <c r="G31">
+        <v>0.01535685701611908</v>
+      </c>
+      <c r="H31">
+        <v>0.004889449933341594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02351274349117687</v>
+        <v>-0.001971117191203205</v>
       </c>
       <c r="C32">
-        <v>-0.01328038941322988</v>
+        <v>0.01472256199725664</v>
       </c>
       <c r="D32">
-        <v>0.0514158974194012</v>
+        <v>0.007497433074649534</v>
       </c>
       <c r="E32">
-        <v>0.04293401629894521</v>
+        <v>0.03002343934557659</v>
       </c>
       <c r="F32">
-        <v>0.04032985395814287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01093679156069646</v>
+      </c>
+      <c r="G32">
+        <v>0.05179322890377887</v>
+      </c>
+      <c r="H32">
+        <v>0.05057235887993611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02806731265645147</v>
+        <v>-0.0177230432594788</v>
       </c>
       <c r="C33">
-        <v>0.04571542783170425</v>
+        <v>0.04700741713708415</v>
       </c>
       <c r="D33">
-        <v>0.04656063191799473</v>
+        <v>-0.01453732940274021</v>
       </c>
       <c r="E33">
-        <v>0.00529051986796716</v>
+        <v>-0.01863395071969556</v>
       </c>
       <c r="F33">
-        <v>0.06030868205067962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02079347888183476</v>
+      </c>
+      <c r="G33">
+        <v>0.02497137626515157</v>
+      </c>
+      <c r="H33">
+        <v>0.04849449659485164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03549387902495728</v>
+        <v>-0.02528538579837726</v>
       </c>
       <c r="C34">
-        <v>0.01918107617328846</v>
+        <v>0.05211741662453799</v>
       </c>
       <c r="D34">
-        <v>0.03994395875644965</v>
+        <v>0.005288307857791825</v>
       </c>
       <c r="E34">
-        <v>0.03441858266211461</v>
+        <v>0.01481701489514528</v>
       </c>
       <c r="F34">
-        <v>0.02741176897729092</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01627497508104598</v>
+      </c>
+      <c r="G34">
+        <v>0.01188842112100533</v>
+      </c>
+      <c r="H34">
+        <v>0.03631631184648961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01950219670336822</v>
+        <v>-0.01480446527761032</v>
       </c>
       <c r="C36">
-        <v>0.001598964082467956</v>
+        <v>0.006125321710632525</v>
       </c>
       <c r="D36">
-        <v>0.009072679391848358</v>
+        <v>-0.009109312276109565</v>
       </c>
       <c r="E36">
-        <v>0.01275929121414252</v>
+        <v>0.008719804736173188</v>
       </c>
       <c r="F36">
-        <v>0.03025693042039512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007948211439830294</v>
+      </c>
+      <c r="G36">
+        <v>0.01383166393929623</v>
+      </c>
+      <c r="H36">
+        <v>0.01606271851472833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007872294891770331</v>
+        <v>-0.02369535906939304</v>
       </c>
       <c r="C38">
-        <v>0.005351240359397099</v>
+        <v>0.01880427421233355</v>
       </c>
       <c r="D38">
-        <v>0.001586510832448257</v>
+        <v>0.009366913280514784</v>
       </c>
       <c r="E38">
-        <v>-0.02054490589027515</v>
+        <v>0.001377204460452917</v>
       </c>
       <c r="F38">
-        <v>0.04640252922370578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.002336412535131397</v>
+      </c>
+      <c r="G38">
+        <v>0.01753805404474248</v>
+      </c>
+      <c r="H38">
+        <v>0.03627077640666227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02610449309151382</v>
+        <v>-0.006009839540502768</v>
       </c>
       <c r="C39">
-        <v>0.02376421693957345</v>
+        <v>0.08742801773976352</v>
       </c>
       <c r="D39">
-        <v>0.05709114367310218</v>
+        <v>-0.01626979298952206</v>
       </c>
       <c r="E39">
-        <v>0.025922075687064</v>
+        <v>-0.005759272137808265</v>
       </c>
       <c r="F39">
-        <v>0.0471176215955874</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.007828624450487901</v>
+      </c>
+      <c r="G39">
+        <v>0.02509974458576198</v>
+      </c>
+      <c r="H39">
+        <v>0.07870080594775306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01121148384164208</v>
+        <v>-0.02213689323987277</v>
       </c>
       <c r="C40">
-        <v>0.04976883197192092</v>
+        <v>0.03261534914422877</v>
       </c>
       <c r="D40">
-        <v>0.01786042189671225</v>
+        <v>-0.01004579850707188</v>
       </c>
       <c r="E40">
-        <v>0.03290697958209258</v>
+        <v>-0.02387774330076891</v>
       </c>
       <c r="F40">
-        <v>0.03792399488525307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02344737759068387</v>
+      </c>
+      <c r="G40">
+        <v>0.02193987572669946</v>
+      </c>
+      <c r="H40">
+        <v>0.05381683905296011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008424599840453314</v>
+        <v>-0.01237756340094298</v>
       </c>
       <c r="C41">
-        <v>-0.0002484321180711357</v>
+        <v>-0.008071345121485839</v>
       </c>
       <c r="D41">
-        <v>0.006224637680621419</v>
+        <v>-0.00110737588858257</v>
       </c>
       <c r="E41">
-        <v>-0.01204509879108333</v>
+        <v>0.005254818882970021</v>
       </c>
       <c r="F41">
-        <v>0.005772054979684664</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007125171969854006</v>
+      </c>
+      <c r="G41">
+        <v>-0.005076140889492576</v>
+      </c>
+      <c r="H41">
+        <v>-0.002286389407152029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2044906492331072</v>
+        <v>-0.08920010879825592</v>
       </c>
       <c r="C42">
-        <v>0.2383679685430922</v>
+        <v>0.19097888136307</v>
       </c>
       <c r="D42">
-        <v>0.2595683162073013</v>
+        <v>-0.1387490547518009</v>
       </c>
       <c r="E42">
-        <v>-0.855633321543271</v>
+        <v>-0.1959227773225859</v>
       </c>
       <c r="F42">
-        <v>-0.2440936971873802</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.6073780986646999</v>
+      </c>
+      <c r="G42">
+        <v>-0.7114341436326908</v>
+      </c>
+      <c r="H42">
+        <v>0.07173696754695774</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007370920986086054</v>
+        <v>-0.01311655059702223</v>
       </c>
       <c r="C43">
-        <v>0.005472107992810712</v>
+        <v>-0.007698463328273496</v>
       </c>
       <c r="D43">
-        <v>0.01020269791778048</v>
+        <v>-0.001922755941318593</v>
       </c>
       <c r="E43">
-        <v>-0.001520452044229389</v>
+        <v>0.0008340400195844601</v>
       </c>
       <c r="F43">
-        <v>0.02450721766548164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.006082200743216422</v>
+      </c>
+      <c r="G43">
+        <v>-0.003673045381488122</v>
+      </c>
+      <c r="H43">
+        <v>0.008150480681578864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02431079154486034</v>
+        <v>-0.00870869100723572</v>
       </c>
       <c r="C44">
-        <v>-0.002994663880431735</v>
+        <v>0.03959547577766896</v>
       </c>
       <c r="D44">
-        <v>0.02967909254393124</v>
+        <v>-0.006902947600273402</v>
       </c>
       <c r="E44">
-        <v>-0.002335921548236124</v>
+        <v>0.0143812519919909</v>
       </c>
       <c r="F44">
-        <v>0.08913211977221129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02342924964130199</v>
+      </c>
+      <c r="G44">
+        <v>0.02487432668571575</v>
+      </c>
+      <c r="H44">
+        <v>0.059175495612101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01965820736117534</v>
+        <v>-0.005356470021221848</v>
       </c>
       <c r="C46">
-        <v>0.01157222211066999</v>
+        <v>0.01185181740488909</v>
       </c>
       <c r="D46">
-        <v>0.05073852302049126</v>
+        <v>-0.01099457462700411</v>
       </c>
       <c r="E46">
-        <v>0.02486788582223156</v>
+        <v>0.003552806235745463</v>
       </c>
       <c r="F46">
-        <v>0.05913935043787456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01214345847542683</v>
+      </c>
+      <c r="G46">
+        <v>0.02524237535622477</v>
+      </c>
+      <c r="H46">
+        <v>0.01613041526308627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07531648701491593</v>
+        <v>-0.05705464275898</v>
       </c>
       <c r="C47">
-        <v>0.05603170598515455</v>
+        <v>0.06700412847189192</v>
       </c>
       <c r="D47">
-        <v>0.006830751212188489</v>
+        <v>0.005245637639961844</v>
       </c>
       <c r="E47">
-        <v>0.03575931646692461</v>
+        <v>0.00741147841255257</v>
       </c>
       <c r="F47">
-        <v>0.0053961995535469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.002038032739052489</v>
+      </c>
+      <c r="G47">
+        <v>0.006082807573523663</v>
+      </c>
+      <c r="H47">
+        <v>-0.03358080049843223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01768279296459574</v>
+        <v>-0.01407588529301916</v>
       </c>
       <c r="C48">
-        <v>0.01160202195032682</v>
+        <v>0.01604515340521397</v>
       </c>
       <c r="D48">
-        <v>0.01679653518592326</v>
+        <v>-0.000735695278809063</v>
       </c>
       <c r="E48">
-        <v>0.01271207576916004</v>
+        <v>0.002010006106006026</v>
       </c>
       <c r="F48">
-        <v>0.03542706566153209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.004733563563050598</v>
+      </c>
+      <c r="G48">
+        <v>0.01563453918441583</v>
+      </c>
+      <c r="H48">
+        <v>0.02079575504061678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08157727660964326</v>
+        <v>-0.06196547439467368</v>
       </c>
       <c r="C50">
-        <v>0.03939377164795485</v>
+        <v>0.06258917712803641</v>
       </c>
       <c r="D50">
-        <v>0.03044903644717359</v>
+        <v>0.00430584217500467</v>
       </c>
       <c r="E50">
-        <v>0.02261134459924146</v>
+        <v>0.01935637072793061</v>
       </c>
       <c r="F50">
-        <v>0.02012794061670539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.006213001541637228</v>
+      </c>
+      <c r="G50">
+        <v>0.009161388503571828</v>
+      </c>
+      <c r="H50">
+        <v>-0.01693048305246148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01440551872983092</v>
+        <v>-0.01256649881715696</v>
       </c>
       <c r="C51">
-        <v>-0.000505566598037544</v>
+        <v>0.01476530625226743</v>
       </c>
       <c r="D51">
-        <v>-0.002852706744047808</v>
+        <v>-0.006199799602375884</v>
       </c>
       <c r="E51">
-        <v>0.00917792391322725</v>
+        <v>0.008505367078101619</v>
       </c>
       <c r="F51">
-        <v>0.09836951655833434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01099067910183745</v>
+      </c>
+      <c r="G51">
+        <v>0.02853373146733628</v>
+      </c>
+      <c r="H51">
+        <v>0.04665787180692133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08237905774755359</v>
+        <v>-0.07396483863243984</v>
       </c>
       <c r="C53">
-        <v>0.05990842662428912</v>
+        <v>0.1029130198546281</v>
       </c>
       <c r="D53">
-        <v>0.03550548144673811</v>
+        <v>0.003313685938883043</v>
       </c>
       <c r="E53">
-        <v>0.03938702163632055</v>
+        <v>0.01201950932531326</v>
       </c>
       <c r="F53">
-        <v>-0.0343489374370291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.024723415621032</v>
+      </c>
+      <c r="G53">
+        <v>-0.01081713193720405</v>
+      </c>
+      <c r="H53">
+        <v>-0.0364083682503662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02610008582216647</v>
+        <v>-0.02313654951398228</v>
       </c>
       <c r="C54">
-        <v>0.003308862040835839</v>
+        <v>-0.0006104525337085645</v>
       </c>
       <c r="D54">
-        <v>-0.00544449901639627</v>
+        <v>0.006919808648270364</v>
       </c>
       <c r="E54">
-        <v>0.02193779111912441</v>
+        <v>0.007801238971723958</v>
       </c>
       <c r="F54">
-        <v>0.02911084202034979</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01669814179437156</v>
+      </c>
+      <c r="G54">
+        <v>0.03201632894226904</v>
+      </c>
+      <c r="H54">
+        <v>0.005400554255457041</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08285899915111106</v>
+        <v>-0.05473226323032131</v>
       </c>
       <c r="C55">
-        <v>0.05558599021404335</v>
+        <v>0.0930014515342045</v>
       </c>
       <c r="D55">
-        <v>0.04065642282660569</v>
+        <v>0.001573133620143582</v>
       </c>
       <c r="E55">
-        <v>0.02928267713191965</v>
+        <v>0.01216735289107426</v>
       </c>
       <c r="F55">
-        <v>-0.03439305790838964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.005761330922183568</v>
+      </c>
+      <c r="G55">
+        <v>-0.001079889890162234</v>
+      </c>
+      <c r="H55">
+        <v>-0.03958437030469276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1190019203997533</v>
+        <v>-0.1017057909880649</v>
       </c>
       <c r="C56">
-        <v>0.09142072400952331</v>
+        <v>0.133740404542536</v>
       </c>
       <c r="D56">
-        <v>0.0187974966656896</v>
+        <v>0.01044583141253276</v>
       </c>
       <c r="E56">
-        <v>0.07105078150947843</v>
+        <v>0.01217028101799845</v>
       </c>
       <c r="F56">
-        <v>-0.05884742980156781</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.04809710636949853</v>
+      </c>
+      <c r="G56">
+        <v>-0.02067076160884856</v>
+      </c>
+      <c r="H56">
+        <v>-0.07612069069595266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03176682312714767</v>
+        <v>-0.023827451970259</v>
       </c>
       <c r="C57">
-        <v>0.0290599687206511</v>
+        <v>0.02914796902347645</v>
       </c>
       <c r="D57">
-        <v>0.01928388566105483</v>
+        <v>-0.02430714946618343</v>
       </c>
       <c r="E57">
-        <v>-0.02839363286710571</v>
+        <v>-0.007861979747212335</v>
       </c>
       <c r="F57">
-        <v>0.05705176347545572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03504318943970541</v>
+      </c>
+      <c r="G57">
+        <v>0.04464831208930772</v>
+      </c>
+      <c r="H57">
+        <v>0.05771395737671095</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1272677639181827</v>
+        <v>-0.08379355956114952</v>
       </c>
       <c r="C58">
-        <v>0.2277374364409872</v>
+        <v>0.194646526959187</v>
       </c>
       <c r="D58">
-        <v>0.2255900973221784</v>
+        <v>-0.01738882228925799</v>
       </c>
       <c r="E58">
-        <v>0.004100561622631015</v>
+        <v>-0.3119809648742353</v>
       </c>
       <c r="F58">
-        <v>0.5481624835993113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.5825634010830349</v>
+      </c>
+      <c r="G58">
+        <v>0.6306269695912087</v>
+      </c>
+      <c r="H58">
+        <v>-0.1966041800183139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05160768014140811</v>
+        <v>-0.2025567491474589</v>
       </c>
       <c r="C59">
-        <v>0.03471065186947411</v>
+        <v>-0.1701672489794374</v>
       </c>
       <c r="D59">
-        <v>-0.1857190129165378</v>
+        <v>0.04317016912280611</v>
       </c>
       <c r="E59">
-        <v>-0.03904747462788046</v>
+        <v>-0.01102600633116669</v>
       </c>
       <c r="F59">
-        <v>0.08384768410230237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01144583842801244</v>
+      </c>
+      <c r="G59">
+        <v>0.01771018110858297</v>
+      </c>
+      <c r="H59">
+        <v>0.0194995602338221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1151952507546908</v>
+        <v>-0.2202315612032885</v>
       </c>
       <c r="C60">
-        <v>0.1240385830258682</v>
+        <v>0.06985189421143713</v>
       </c>
       <c r="D60">
-        <v>-0.006586284738725821</v>
+        <v>0.006245546196180625</v>
       </c>
       <c r="E60">
-        <v>-0.01200393328226522</v>
+        <v>-0.05751764428945853</v>
       </c>
       <c r="F60">
-        <v>0.1780147147284705</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1110154117373253</v>
+      </c>
+      <c r="G60">
+        <v>0.03268541315450128</v>
+      </c>
+      <c r="H60">
+        <v>0.3868061248429287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02234021653344305</v>
+        <v>-0.01498328553775108</v>
       </c>
       <c r="C61">
-        <v>0.0136038772812458</v>
+        <v>0.06129509215102959</v>
       </c>
       <c r="D61">
-        <v>0.04299326014248989</v>
+        <v>-0.006714841480577325</v>
       </c>
       <c r="E61">
-        <v>0.007225097468437656</v>
+        <v>0.004241891459644807</v>
       </c>
       <c r="F61">
-        <v>0.02371277884348478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.008828126149061418</v>
+      </c>
+      <c r="G61">
+        <v>0.02057911150304284</v>
+      </c>
+      <c r="H61">
+        <v>0.05943344384051241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01422533264025512</v>
+        <v>-0.007353464001870669</v>
       </c>
       <c r="C63">
-        <v>0.003759940597999179</v>
+        <v>0.02184656293492803</v>
       </c>
       <c r="D63">
-        <v>0.01844775967570587</v>
+        <v>-0.008244931367127496</v>
       </c>
       <c r="E63">
-        <v>0.0009086841374728255</v>
+        <v>0.01051757666301854</v>
       </c>
       <c r="F63">
-        <v>0.006416768485556802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.001177790546356264</v>
+      </c>
+      <c r="G63">
+        <v>0.01180674472457999</v>
+      </c>
+      <c r="H63">
+        <v>0.01396366088918172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03828410815750014</v>
+        <v>-0.03590208333467416</v>
       </c>
       <c r="C64">
-        <v>0.008461246427572131</v>
+        <v>0.04277273473656831</v>
       </c>
       <c r="D64">
-        <v>0.02389787112984466</v>
+        <v>-0.004018915280256323</v>
       </c>
       <c r="E64">
-        <v>0.02329631073257706</v>
+        <v>0.01716541450540833</v>
       </c>
       <c r="F64">
-        <v>0.01222515175217304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.009320386290772632</v>
+      </c>
+      <c r="G64">
+        <v>-0.01107753480632425</v>
+      </c>
+      <c r="H64">
+        <v>0.04148094031071008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03609216377403124</v>
+        <v>-0.03955466556936161</v>
       </c>
       <c r="C65">
-        <v>0.01967261030200324</v>
+        <v>0.07921543742637165</v>
       </c>
       <c r="D65">
-        <v>0.03842930473153278</v>
+        <v>-0.01836739842306889</v>
       </c>
       <c r="E65">
-        <v>0.02798029630467073</v>
+        <v>0.008333635891939754</v>
       </c>
       <c r="F65">
-        <v>0.01028661442279304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04200308967442585</v>
+      </c>
+      <c r="G65">
+        <v>0.01633239990570455</v>
+      </c>
+      <c r="H65">
+        <v>0.06516572112768748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02886474730624331</v>
+        <v>-0.0147359621657161</v>
       </c>
       <c r="C66">
-        <v>0.0338554566049629</v>
+        <v>0.115304006432208</v>
       </c>
       <c r="D66">
-        <v>0.06106823930500918</v>
+        <v>-0.01557795627112412</v>
       </c>
       <c r="E66">
-        <v>0.04935476499626085</v>
+        <v>-0.007643556657037451</v>
       </c>
       <c r="F66">
-        <v>0.03211644325914572</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03229199814932064</v>
+      </c>
+      <c r="G66">
+        <v>0.03409522448903324</v>
+      </c>
+      <c r="H66">
+        <v>0.08655700315438708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01673644213766932</v>
+        <v>-0.04682358546617304</v>
       </c>
       <c r="C67">
-        <v>0.0166998838738168</v>
+        <v>0.02617786956081001</v>
       </c>
       <c r="D67">
-        <v>-0.009073929241063077</v>
+        <v>0.00924589910173979</v>
       </c>
       <c r="E67">
-        <v>-0.01228881581457224</v>
+        <v>-0.0005682731089705681</v>
       </c>
       <c r="F67">
-        <v>0.02767674860826923</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0124699835127092</v>
+      </c>
+      <c r="G67">
+        <v>0.0146135675912875</v>
+      </c>
+      <c r="H67">
+        <v>0.03292750082750631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06732007306257454</v>
+        <v>-0.2020617562526846</v>
       </c>
       <c r="C68">
-        <v>0.03350519989841096</v>
+        <v>-0.2086307778064071</v>
       </c>
       <c r="D68">
-        <v>-0.2105924135259236</v>
+        <v>0.02713447578990991</v>
       </c>
       <c r="E68">
-        <v>-0.05024811796374069</v>
+        <v>-0.009518574679430521</v>
       </c>
       <c r="F68">
-        <v>0.07555290552191148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.06085151155795986</v>
+      </c>
+      <c r="G68">
+        <v>0.009948064871917437</v>
+      </c>
+      <c r="H68">
+        <v>-0.03736976736730355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05548826001477732</v>
+        <v>-0.05702324343356755</v>
       </c>
       <c r="C69">
-        <v>0.04342996843080304</v>
+        <v>0.06027894861244198</v>
       </c>
       <c r="D69">
-        <v>0.01219404159834089</v>
+        <v>0.0100184601073153</v>
       </c>
       <c r="E69">
-        <v>0.03631427477950114</v>
+        <v>0.00667452318406027</v>
       </c>
       <c r="F69">
-        <v>0.01354518210943651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02311052696430614</v>
+      </c>
+      <c r="G69">
+        <v>0.004904975471745909</v>
+      </c>
+      <c r="H69">
+        <v>0.004073496666521242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07204262146735753</v>
+        <v>-0.1789392964503281</v>
       </c>
       <c r="C71">
-        <v>0.04205110681236187</v>
+        <v>-0.1648601356807457</v>
       </c>
       <c r="D71">
-        <v>-0.2118774863573171</v>
+        <v>0.02832164838686562</v>
       </c>
       <c r="E71">
-        <v>-0.08882503780128985</v>
+        <v>-0.01312772926006717</v>
       </c>
       <c r="F71">
-        <v>0.0793364982406001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.07059634058132455</v>
+      </c>
+      <c r="G71">
+        <v>0.005006771198373281</v>
+      </c>
+      <c r="H71">
+        <v>-0.01529646733289738</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09307297494122804</v>
+        <v>-0.05822091791580299</v>
       </c>
       <c r="C72">
-        <v>0.092120822620553</v>
+        <v>0.1120950511137514</v>
       </c>
       <c r="D72">
-        <v>0.07079174776317218</v>
+        <v>0.006458580570527077</v>
       </c>
       <c r="E72">
-        <v>0.08206616545888089</v>
+        <v>-0.0160772117663537</v>
       </c>
       <c r="F72">
-        <v>0.08061566047624018</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04909905622528635</v>
+      </c>
+      <c r="G72">
+        <v>0.04847224290862712</v>
+      </c>
+      <c r="H72">
+        <v>0.08951477946870524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1384003241978296</v>
+        <v>-0.2851351010153255</v>
       </c>
       <c r="C73">
-        <v>0.1926259981922238</v>
+        <v>0.1445922243998219</v>
       </c>
       <c r="D73">
-        <v>-0.01368587419913112</v>
+        <v>-0.001837779958206407</v>
       </c>
       <c r="E73">
-        <v>-0.06033053223508204</v>
+        <v>-0.09757512294905486</v>
       </c>
       <c r="F73">
-        <v>0.2139154601424473</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1347659558043221</v>
+      </c>
+      <c r="G73">
+        <v>0.02629334533417176</v>
+      </c>
+      <c r="H73">
+        <v>0.4883059227354725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1091382421759366</v>
+        <v>-0.09784898757793793</v>
       </c>
       <c r="C74">
-        <v>0.08374294995333673</v>
+        <v>0.1338000675317514</v>
       </c>
       <c r="D74">
-        <v>0.02036057720843201</v>
+        <v>0.009812653782589987</v>
       </c>
       <c r="E74">
-        <v>0.04680440859396129</v>
+        <v>0.01344586187828737</v>
       </c>
       <c r="F74">
-        <v>-0.07748597986949506</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0320734036698123</v>
+      </c>
+      <c r="G74">
+        <v>-0.01124792570503515</v>
+      </c>
+      <c r="H74">
+        <v>-0.0557954409659594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1899425132198151</v>
+        <v>-0.2075708418397814</v>
       </c>
       <c r="C75">
-        <v>0.1644549387828731</v>
+        <v>0.2284582749415481</v>
       </c>
       <c r="D75">
-        <v>0.009177270907327763</v>
+        <v>0.02726692140428236</v>
       </c>
       <c r="E75">
-        <v>0.1575968994958777</v>
+        <v>0.01051367237489018</v>
       </c>
       <c r="F75">
-        <v>-0.1229890724501809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09812646211045453</v>
+      </c>
+      <c r="G75">
+        <v>-0.02464800673444982</v>
+      </c>
+      <c r="H75">
+        <v>-0.1725703188743372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2490307464506877</v>
+        <v>-0.1578038226839294</v>
       </c>
       <c r="C76">
-        <v>0.1634933627660242</v>
+        <v>0.2034381198821169</v>
       </c>
       <c r="D76">
-        <v>0.02242808739556437</v>
+        <v>0.02276988346033157</v>
       </c>
       <c r="E76">
-        <v>0.1676041674497002</v>
+        <v>0.05248476597561169</v>
       </c>
       <c r="F76">
-        <v>-0.2121156909518738</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0819733547822509</v>
+      </c>
+      <c r="G76">
+        <v>-0.0342011895777759</v>
+      </c>
+      <c r="H76">
+        <v>-0.145685125536323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08553453930534</v>
+        <v>-0.04522829086787248</v>
       </c>
       <c r="C77">
-        <v>0.0806035180426531</v>
+        <v>0.08495795736435503</v>
       </c>
       <c r="D77">
-        <v>0.07545041973235544</v>
+        <v>-0.01615189447783067</v>
       </c>
       <c r="E77">
-        <v>-0.02208540874118254</v>
+        <v>-0.01642295494367612</v>
       </c>
       <c r="F77">
-        <v>0.1149133959622946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04947334930201487</v>
+      </c>
+      <c r="G77">
+        <v>0.04112756730500766</v>
+      </c>
+      <c r="H77">
+        <v>0.01949098230823269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05728430318241381</v>
+        <v>-0.02369962069398638</v>
       </c>
       <c r="C78">
-        <v>0.03701609453240502</v>
+        <v>0.07891705734372945</v>
       </c>
       <c r="D78">
-        <v>0.1076784472385012</v>
+        <v>-0.009395551239933388</v>
       </c>
       <c r="E78">
-        <v>0.04198705475083737</v>
+        <v>0.005922317865226028</v>
       </c>
       <c r="F78">
-        <v>0.07789051655700129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.002817135570180073</v>
+      </c>
+      <c r="G78">
+        <v>0.04765516267184524</v>
+      </c>
+      <c r="H78">
+        <v>0.09225945358398939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.658829946444036</v>
+        <v>-0.1000436262194711</v>
       </c>
       <c r="C80">
-        <v>-0.7288741253301142</v>
+        <v>0.09423460124598391</v>
       </c>
       <c r="D80">
-        <v>0.07726978744604598</v>
+        <v>-0.006298533071431519</v>
       </c>
       <c r="E80">
-        <v>-0.04703444303403757</v>
+        <v>0.9074740790359456</v>
       </c>
       <c r="F80">
-        <v>0.04953652320977547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.329419931746871</v>
+      </c>
+      <c r="G80">
+        <v>0.07372354145046987</v>
+      </c>
+      <c r="H80">
+        <v>0.07158812129123174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1505160744568857</v>
+        <v>-0.130931185143781</v>
       </c>
       <c r="C81">
-        <v>0.1129993140090082</v>
+        <v>0.1409412127186082</v>
       </c>
       <c r="D81">
-        <v>0.003206393316046842</v>
+        <v>0.01639422163262159</v>
       </c>
       <c r="E81">
-        <v>0.1162224526169017</v>
+        <v>0.01935125015775862</v>
       </c>
       <c r="F81">
-        <v>-0.1072260755221697</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05342116454206473</v>
+      </c>
+      <c r="G81">
+        <v>-0.01977626539058236</v>
+      </c>
+      <c r="H81">
+        <v>-0.1032475096336408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02542533259697361</v>
+        <v>-0.02211144048461769</v>
       </c>
       <c r="C83">
-        <v>0.0252334507830147</v>
+        <v>0.02393954555720404</v>
       </c>
       <c r="D83">
-        <v>0.02398078562431304</v>
+        <v>-0.00479952118024831</v>
       </c>
       <c r="E83">
-        <v>-0.01460509619222844</v>
+        <v>-0.004941214315130009</v>
       </c>
       <c r="F83">
-        <v>0.05618847965675963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02020911385676577</v>
+      </c>
+      <c r="G83">
+        <v>0.02803020791067965</v>
+      </c>
+      <c r="H83">
+        <v>0.04875348999849978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.205057434638926</v>
+        <v>-0.1866997444807553</v>
       </c>
       <c r="C85">
-        <v>0.1648527912692718</v>
+        <v>0.2178791664467731</v>
       </c>
       <c r="D85">
-        <v>0.02179351797976746</v>
+        <v>0.0126903445487124</v>
       </c>
       <c r="E85">
-        <v>0.1460095780572736</v>
+        <v>0.01272684914508575</v>
       </c>
       <c r="F85">
-        <v>-0.1569615278250277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1157822793595517</v>
+      </c>
+      <c r="G85">
+        <v>-0.06362171600850099</v>
+      </c>
+      <c r="H85">
+        <v>-0.1109976758006859</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006941977851761101</v>
+        <v>-0.009870727134687084</v>
       </c>
       <c r="C86">
-        <v>-0.002755067364998705</v>
+        <v>0.03561354388612394</v>
       </c>
       <c r="D86">
-        <v>0.0789787064681626</v>
+        <v>-0.009719200905971444</v>
       </c>
       <c r="E86">
-        <v>0.003457948845375934</v>
+        <v>0.008227281941443856</v>
       </c>
       <c r="F86">
-        <v>0.04919341243317639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02848672850276327</v>
+      </c>
+      <c r="G86">
+        <v>0.01974284329324249</v>
+      </c>
+      <c r="H86">
+        <v>0.07598596933791847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03021755939449074</v>
+        <v>-0.006381709187657964</v>
       </c>
       <c r="C87">
-        <v>0.02128018028165646</v>
+        <v>0.04130212259718347</v>
       </c>
       <c r="D87">
-        <v>0.0388744893089776</v>
+        <v>-0.01176595214929626</v>
       </c>
       <c r="E87">
-        <v>0.00773033443526509</v>
+        <v>-0.001916468300142739</v>
       </c>
       <c r="F87">
-        <v>0.1042427451817364</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03181897574577203</v>
+      </c>
+      <c r="G87">
+        <v>0.05918613568403997</v>
+      </c>
+      <c r="H87">
+        <v>0.08403941371351384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02038062008900967</v>
+        <v>-0.04346458622746498</v>
       </c>
       <c r="C88">
-        <v>-0.000725433662900116</v>
+        <v>0.01686907563261224</v>
       </c>
       <c r="D88">
-        <v>0.0003586185190487038</v>
+        <v>-0.01789122160938551</v>
       </c>
       <c r="E88">
-        <v>0.01865989264719549</v>
+        <v>0.02360863615222343</v>
       </c>
       <c r="F88">
-        <v>-0.01913299826559963</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02072057462403253</v>
+      </c>
+      <c r="G88">
+        <v>-0.001839891487348988</v>
+      </c>
+      <c r="H88">
+        <v>0.006777034725670763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09497265038998205</v>
+        <v>-0.3153980675149298</v>
       </c>
       <c r="C89">
-        <v>0.05885088598050556</v>
+        <v>-0.2923745622202941</v>
       </c>
       <c r="D89">
-        <v>-0.3435700254048376</v>
+        <v>0.05049743841680685</v>
       </c>
       <c r="E89">
-        <v>-0.05712220355570765</v>
+        <v>-0.01047924567212496</v>
       </c>
       <c r="F89">
-        <v>0.09817675237333172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.009961270976279064</v>
+      </c>
+      <c r="G89">
+        <v>-0.01691398822513078</v>
+      </c>
+      <c r="H89">
+        <v>-0.01214027783752116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08084644842354066</v>
+        <v>-0.2611300292816654</v>
       </c>
       <c r="C90">
-        <v>0.02343940861955863</v>
+        <v>-0.2704757762533056</v>
       </c>
       <c r="D90">
-        <v>-0.3598141421453637</v>
+        <v>0.04686873806446702</v>
       </c>
       <c r="E90">
-        <v>-0.08847576385614751</v>
+        <v>-0.003896627629288731</v>
       </c>
       <c r="F90">
-        <v>0.04707105194688622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05827321421893127</v>
+      </c>
+      <c r="G90">
+        <v>-0.01406931842830222</v>
+      </c>
+      <c r="H90">
+        <v>-0.06205071853406271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2368730170083648</v>
+        <v>-0.1989320619225008</v>
       </c>
       <c r="C91">
-        <v>0.2109677457740823</v>
+        <v>0.2067957864043869</v>
       </c>
       <c r="D91">
-        <v>0.02340852197515983</v>
+        <v>0.02622273915931348</v>
       </c>
       <c r="E91">
-        <v>0.1212589482581418</v>
+        <v>0.002257559744162649</v>
       </c>
       <c r="F91">
-        <v>-0.2353306454458755</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.09015553202998067</v>
+      </c>
+      <c r="G91">
+        <v>-0.05489564537916609</v>
+      </c>
+      <c r="H91">
+        <v>-0.1854555351815488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1510688764975169</v>
+        <v>-0.2806312668986377</v>
       </c>
       <c r="C92">
-        <v>0.08968536178672824</v>
+        <v>-0.1724183629096127</v>
       </c>
       <c r="D92">
-        <v>-0.4255476838871622</v>
+        <v>0.0825454501187113</v>
       </c>
       <c r="E92">
-        <v>0.006232409196980291</v>
+        <v>0.003182716492346219</v>
       </c>
       <c r="F92">
-        <v>-0.04802268532075154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04820921627744556</v>
+      </c>
+      <c r="G92">
+        <v>0.02756556375484658</v>
+      </c>
+      <c r="H92">
+        <v>-0.1372437050480214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08165955815883623</v>
+        <v>-0.2965278171243074</v>
       </c>
       <c r="C93">
-        <v>0.07135293902303386</v>
+        <v>-0.2659572430970744</v>
       </c>
       <c r="D93">
-        <v>-0.4160132289732535</v>
+        <v>0.05631684856566442</v>
       </c>
       <c r="E93">
-        <v>-0.1280106053180843</v>
+        <v>-0.03620768017691142</v>
       </c>
       <c r="F93">
-        <v>0.06121600243052946</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.04436197105777117</v>
+      </c>
+      <c r="G93">
+        <v>-0.02646217915206243</v>
+      </c>
+      <c r="H93">
+        <v>0.00428149050977324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2338440144671006</v>
+        <v>-0.2457015158877218</v>
       </c>
       <c r="C94">
-        <v>0.2177260125118735</v>
+        <v>0.2329550217674602</v>
       </c>
       <c r="D94">
-        <v>0.02363522321897662</v>
+        <v>0.01568951247918514</v>
       </c>
       <c r="E94">
-        <v>0.2277080300302199</v>
+        <v>0.0007949935557931715</v>
       </c>
       <c r="F94">
-        <v>-0.1815101998142664</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.214936603136074</v>
+      </c>
+      <c r="G94">
+        <v>-0.07152809540210002</v>
+      </c>
+      <c r="H94">
+        <v>-0.4079522334721273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.003546223150375129</v>
+        <v>-0.02975003755535714</v>
       </c>
       <c r="C95">
-        <v>0.08694018328554923</v>
+        <v>0.1002804726290055</v>
       </c>
       <c r="D95">
-        <v>0.03675254316289914</v>
+        <v>0.00196669955480424</v>
       </c>
       <c r="E95">
-        <v>0.02678578459412057</v>
+        <v>-0.08135831514455305</v>
       </c>
       <c r="F95">
-        <v>0.01552434971692763</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02526410660392894</v>
+      </c>
+      <c r="G95">
+        <v>0.02388473139581046</v>
+      </c>
+      <c r="H95">
+        <v>0.03401387276454711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1182269010953283</v>
+        <v>-0.1867319520817208</v>
       </c>
       <c r="C98">
-        <v>0.1266370984558595</v>
+        <v>0.06934915101859013</v>
       </c>
       <c r="D98">
-        <v>-0.01372238839939462</v>
+        <v>0.02883261534919582</v>
       </c>
       <c r="E98">
-        <v>-0.06312318352411748</v>
+        <v>-0.06610555290728634</v>
       </c>
       <c r="F98">
-        <v>0.1855808108712919</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01383587055141745</v>
+      </c>
+      <c r="G98">
+        <v>0.04131123424003215</v>
+      </c>
+      <c r="H98">
+        <v>0.3340830957028777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01113752839973444</v>
+        <v>-0.007585129195793667</v>
       </c>
       <c r="C101">
-        <v>-0.001382108502353542</v>
+        <v>0.01823652027425802</v>
       </c>
       <c r="D101">
-        <v>0.058491663392596</v>
+        <v>-0.007153111043494201</v>
       </c>
       <c r="E101">
-        <v>0.02965840018697768</v>
+        <v>-0.0005178666548154447</v>
       </c>
       <c r="F101">
-        <v>0.1685405176684685</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04033980074084929</v>
+      </c>
+      <c r="G101">
+        <v>0.07786898051320094</v>
+      </c>
+      <c r="H101">
+        <v>0.004835314055946437</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09698491940595702</v>
+        <v>-0.09452441728354373</v>
       </c>
       <c r="C102">
-        <v>0.07266621710692908</v>
+        <v>0.1060809889138164</v>
       </c>
       <c r="D102">
-        <v>0.01151022791543514</v>
+        <v>-0.0004013889345186161</v>
       </c>
       <c r="E102">
-        <v>0.07627645142089251</v>
+        <v>0.0101421849647045</v>
       </c>
       <c r="F102">
-        <v>-0.09682963955089399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06024425314222839</v>
+      </c>
+      <c r="G102">
+        <v>-0.02379895476612594</v>
+      </c>
+      <c r="H102">
+        <v>-0.06881778310500522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04450231461910104</v>
+        <v>-0.01174736497901126</v>
       </c>
       <c r="C103">
-        <v>0.01892201071208393</v>
+        <v>0.01853382148247478</v>
       </c>
       <c r="D103">
-        <v>0.0201907700225127</v>
+        <v>-0.000118162049826392</v>
       </c>
       <c r="E103">
-        <v>0.04155410853067881</v>
+        <v>0.01328803709579447</v>
       </c>
       <c r="F103">
-        <v>-0.00891703139866651</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.002299631240474695</v>
+      </c>
+      <c r="G103">
+        <v>0.007306582520544588</v>
+      </c>
+      <c r="H103">
+        <v>-0.01570754610404418</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1112768157803607</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.1087114434352837</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9733844479620809</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02457069895138702</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.09880042254510461</v>
+      </c>
+      <c r="G104">
+        <v>0.07160034572521357</v>
+      </c>
+      <c r="H104">
+        <v>-0.06064071596700166</v>
       </c>
     </row>
   </sheetData>
